--- a/biology/Zoologie/Elysia_crispata/Elysia_crispata.xlsx
+++ b/biology/Zoologie/Elysia_crispata/Elysia_crispata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elysia crispata · Limace de mer frisée, Limace scarole
 Elysia crispata, communément nommé Limace de mer frisée ou Limace scarole, est une espèce de mollusque sacoglosse de la famille des placobranchidés.
-La Limace de mer frisée est présente dans les eaux tropicales de l'Océan Atlantique occidental et plus particulièrement en Floride, aux Bahamas dans la Mer des Caraïbes et probablement par extension dans le Golfe du Mexique[1].
-Elle peut atteindre une taille de 5 cm de long pour 3 cm de large[2].
+La Limace de mer frisée est présente dans les eaux tropicales de l'Océan Atlantique occidental et plus particulièrement en Floride, aux Bahamas dans la Mer des Caraïbes et probablement par extension dans le Golfe du Mexique.
+Elle peut atteindre une taille de 5 cm de long pour 3 cm de large.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Synonymes taxonomiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elysia pruvotfolae Er. Marcus, 1957
 Elysia schrammi Mörch, 1863
